--- a/src/PRUEBAS/Windows/Datos.xlsx
+++ b/src/PRUEBAS/Windows/Datos.xlsx
@@ -417,13 +417,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="18"/>
+    <col customWidth="1" max="2" min="2" width="18"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -434,6 +438,446 @@
       <c r="B1" t="inlineStr">
         <is>
           <t>TIEMPO</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>17:11:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>30</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>17:11:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>39</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>17:11:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>44</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>17:11:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>23</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>17:11:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>33</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>17:11:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>41</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>17:11:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>44</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>17:11:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>46</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>17:11:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>35</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>17:11:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>33</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>17:11:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>42</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>17:11:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>36</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>17:11:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>20</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>17:11:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>20</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>17:11:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>40</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>17:11:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>46</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>17:11:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>42</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>17:11:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>49</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>17:11:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>49</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>17:11:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>41</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>17:11:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>47</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>17:11:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>44</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>17:11:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>49</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>17:11:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>34</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>17:11:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>41</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>17:11:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>41</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>17:11:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>30</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>17:11:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>17:11:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>35</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>17:11:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>48</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>17:11:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>34</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>17:11:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>24</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>17:11:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>40</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>17:11:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>48</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>17:11:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>28</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>17:11:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>17:11:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>31</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>17:11:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>25</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>17:11:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>26</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>17:11:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>44</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>17:11:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>34</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>17:11:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>20</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>17:11:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>34</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>17:11:22</t>
         </is>
       </c>
     </row>
@@ -449,13 +893,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="18"/>
+    <col customWidth="1" max="2" min="2" width="18"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -466,6 +914,446 @@
       <c r="B1" t="inlineStr">
         <is>
           <t>TIEMPO</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>17:11:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>30</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>17:11:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>39</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>17:11:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>44</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>17:11:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>23</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>17:11:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>33</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>17:11:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>41</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>17:11:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>44</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>17:11:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>46</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>17:11:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>35</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>17:11:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>33</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>17:11:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>42</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>17:11:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>36</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>17:11:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>20</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>17:11:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>20</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>17:11:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>40</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>17:11:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>46</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>17:11:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>42</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>17:11:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>49</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>17:11:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>49</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>17:11:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>41</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>17:11:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>47</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>17:11:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>44</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>17:11:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>49</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>17:11:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>34</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>17:11:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>41</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>17:11:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>41</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>17:11:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>30</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>17:11:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>17:11:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>35</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>17:11:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>48</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>17:11:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>34</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>17:11:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>24</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>17:11:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>40</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>17:11:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>48</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>17:11:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>28</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>17:11:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>17:11:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>31</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>17:11:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>25</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>17:11:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>26</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>17:11:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>44</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>17:11:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>34</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>17:11:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>20</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>17:11:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>34</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>17:11:22</t>
         </is>
       </c>
     </row>
@@ -481,13 +1369,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="18"/>
+    <col customWidth="1" max="2" min="2" width="18"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -498,6 +1390,446 @@
       <c r="B1" t="inlineStr">
         <is>
           <t>TIEMPO</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>17:11:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>30</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>17:11:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>39</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>17:11:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>44</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>17:11:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>23</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>17:11:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>33</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>17:11:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>41</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>17:11:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>44</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>17:11:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>46</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>17:11:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>35</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>17:11:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>33</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>17:11:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>42</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>17:11:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>36</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>17:11:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>20</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>17:11:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>20</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>17:11:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>40</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>17:11:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>46</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>17:11:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>42</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>17:11:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>49</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>17:11:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>49</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>17:11:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>41</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>17:11:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>47</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>17:11:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>44</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>17:11:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>49</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>17:11:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>34</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>17:11:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>41</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>17:11:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>41</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>17:11:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>30</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>17:11:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>17:11:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>35</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>17:11:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>48</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>17:11:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>34</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>17:11:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>24</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>17:11:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>40</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>17:11:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>48</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>17:11:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>28</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>17:11:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>17:11:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>31</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>17:11:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>25</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>17:11:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>26</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>17:11:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>44</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>17:11:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>34</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>17:11:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>20</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>17:11:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>34</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>17:11:22</t>
         </is>
       </c>
     </row>
@@ -513,13 +1845,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="18"/>
+    <col customWidth="1" max="2" min="2" width="18"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -530,6 +1866,446 @@
       <c r="B1" t="inlineStr">
         <is>
           <t>TIEMPO</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>17:11:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>30</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>17:11:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>39</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>17:11:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>44</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>17:11:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>23</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>17:11:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>33</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>17:11:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>41</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>17:11:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>44</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>17:11:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>46</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>17:11:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>35</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>17:11:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>33</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>17:11:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>42</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>17:11:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>36</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>17:11:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>20</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>17:11:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>20</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>17:11:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>40</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>17:11:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>46</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>17:11:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>42</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>17:11:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>49</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>17:11:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>49</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>17:11:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>41</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>17:11:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>47</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>17:11:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>44</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>17:11:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>49</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>17:11:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>34</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>17:11:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>41</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>17:11:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>41</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>17:11:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>30</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>17:11:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>17:11:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>35</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>17:11:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>48</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>17:11:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>34</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>17:11:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>24</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>17:11:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>40</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>17:11:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>48</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>17:11:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>28</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>17:11:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>17:11:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>31</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>17:11:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>25</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>17:11:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>26</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>17:11:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>44</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>17:11:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>34</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>17:11:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>20</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>17:11:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>34</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>17:11:22</t>
         </is>
       </c>
     </row>

--- a/src/PRUEBAS/Windows/Datos.xlsx
+++ b/src/PRUEBAS/Windows/Datos.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,121 +443,121 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>17:11:12</t>
+          <t>21:22:26</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>17:11:12</t>
+          <t>21:22:26</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>17:11:12</t>
+          <t>21:22:26</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>17:11:12</t>
+          <t>21:22:26</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>17:11:13</t>
+          <t>21:22:28</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>17:11:13</t>
+          <t>21:22:28</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>17:11:13</t>
+          <t>21:22:28</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>17:11:13</t>
+          <t>21:22:28</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>17:11:14</t>
+          <t>21:22:29</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>17:11:14</t>
+          <t>21:22:29</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>17:11:14</t>
+          <t>21:22:29</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>17:11:14</t>
+          <t>21:22:29</t>
         </is>
       </c>
     </row>
@@ -567,317 +567,77 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>17:11:15</t>
+          <t>21:22:30</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>17:11:15</t>
+          <t>21:22:30</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>17:11:15</t>
+          <t>21:22:30</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>17:11:15</t>
+          <t>21:22:30</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>17:11:16</t>
+          <t>21:22:31</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>17:11:16</t>
+          <t>21:22:31</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>17:11:16</t>
+          <t>21:22:31</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>17:11:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>41</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>17:11:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>47</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>17:11:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>44</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>17:11:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>49</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>17:11:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>34</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>17:11:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>41</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>17:11:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>41</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>17:11:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>30</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>17:11:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>17:11:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>35</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>17:11:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>48</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>17:11:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>34</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>17:11:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>24</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>17:11:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>40</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>17:11:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>48</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>17:11:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>28</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>17:11:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>37</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>17:11:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>31</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>17:11:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>25</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>17:11:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>26</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>17:11:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>44</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>17:11:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>34</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>17:11:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>20</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>17:11:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>34</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>17:11:22</t>
+          <t>21:22:31</t>
         </is>
       </c>
     </row>
@@ -893,7 +653,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,121 +679,121 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>17:11:12</t>
+          <t>21:22:26</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>17:11:12</t>
+          <t>21:22:26</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>17:11:12</t>
+          <t>21:22:26</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>17:11:12</t>
+          <t>21:22:26</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>17:11:13</t>
+          <t>21:22:28</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>17:11:13</t>
+          <t>21:22:28</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>17:11:13</t>
+          <t>21:22:28</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>17:11:13</t>
+          <t>21:22:28</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>17:11:14</t>
+          <t>21:22:29</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>17:11:14</t>
+          <t>21:22:29</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>17:11:14</t>
+          <t>21:22:29</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>17:11:14</t>
+          <t>21:22:29</t>
         </is>
       </c>
     </row>
@@ -1043,317 +803,77 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>17:11:15</t>
+          <t>21:22:30</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>17:11:15</t>
+          <t>21:22:30</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>17:11:15</t>
+          <t>21:22:30</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>17:11:15</t>
+          <t>21:22:30</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>17:11:16</t>
+          <t>21:22:31</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>17:11:16</t>
+          <t>21:22:31</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>17:11:16</t>
+          <t>21:22:31</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>17:11:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>41</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>17:11:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>47</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>17:11:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>44</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>17:11:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>49</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>17:11:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>34</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>17:11:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>41</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>17:11:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>41</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>17:11:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>30</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>17:11:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>17:11:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>35</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>17:11:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>48</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>17:11:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>34</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>17:11:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>24</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>17:11:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>40</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>17:11:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>48</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>17:11:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>28</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>17:11:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>37</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>17:11:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>31</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>17:11:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>25</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>17:11:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>26</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>17:11:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>44</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>17:11:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>34</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>17:11:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>20</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>17:11:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>34</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>17:11:22</t>
+          <t>21:22:31</t>
         </is>
       </c>
     </row>
@@ -1369,7 +889,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1395,121 +915,121 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>17:11:12</t>
+          <t>21:22:26</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>17:11:12</t>
+          <t>21:22:26</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>17:11:12</t>
+          <t>21:22:26</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>17:11:12</t>
+          <t>21:22:26</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>17:11:13</t>
+          <t>21:22:28</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>17:11:13</t>
+          <t>21:22:28</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>17:11:13</t>
+          <t>21:22:28</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>17:11:13</t>
+          <t>21:22:28</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>17:11:14</t>
+          <t>21:22:29</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>17:11:14</t>
+          <t>21:22:29</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>17:11:14</t>
+          <t>21:22:29</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>17:11:14</t>
+          <t>21:22:29</t>
         </is>
       </c>
     </row>
@@ -1519,317 +1039,77 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>17:11:15</t>
+          <t>21:22:30</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>17:11:15</t>
+          <t>21:22:30</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>17:11:15</t>
+          <t>21:22:30</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>17:11:15</t>
+          <t>21:22:30</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>17:11:16</t>
+          <t>21:22:31</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>17:11:16</t>
+          <t>21:22:31</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>17:11:16</t>
+          <t>21:22:31</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>17:11:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>41</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>17:11:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>47</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>17:11:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>44</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>17:11:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>49</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>17:11:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>34</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>17:11:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>41</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>17:11:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>41</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>17:11:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>30</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>17:11:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>17:11:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>35</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>17:11:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>48</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>17:11:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>34</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>17:11:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>24</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>17:11:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>40</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>17:11:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>48</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>17:11:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>28</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>17:11:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>37</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>17:11:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>31</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>17:11:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>25</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>17:11:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>26</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>17:11:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>44</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>17:11:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>34</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>17:11:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>20</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>17:11:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>34</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>17:11:22</t>
+          <t>21:22:31</t>
         </is>
       </c>
     </row>
@@ -1845,7 +1125,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1871,121 +1151,121 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>17:11:12</t>
+          <t>21:22:26</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>17:11:12</t>
+          <t>21:22:26</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>17:11:12</t>
+          <t>21:22:26</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>17:11:12</t>
+          <t>21:22:26</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>17:11:13</t>
+          <t>21:22:28</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>17:11:13</t>
+          <t>21:22:28</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>17:11:13</t>
+          <t>21:22:28</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>17:11:13</t>
+          <t>21:22:28</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>17:11:14</t>
+          <t>21:22:29</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>17:11:14</t>
+          <t>21:22:29</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>17:11:14</t>
+          <t>21:22:29</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>17:11:14</t>
+          <t>21:22:29</t>
         </is>
       </c>
     </row>
@@ -1995,317 +1275,77 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>17:11:15</t>
+          <t>21:22:30</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>17:11:15</t>
+          <t>21:22:30</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>17:11:15</t>
+          <t>21:22:30</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>17:11:15</t>
+          <t>21:22:30</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>17:11:16</t>
+          <t>21:22:31</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>17:11:16</t>
+          <t>21:22:31</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>17:11:16</t>
+          <t>21:22:31</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>17:11:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>41</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>17:11:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>47</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>17:11:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>44</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>17:11:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>49</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>17:11:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>34</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>17:11:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>41</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>17:11:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>41</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>17:11:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>30</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>17:11:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>17:11:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>35</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>17:11:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>48</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>17:11:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>34</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>17:11:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>24</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>17:11:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>40</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>17:11:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>48</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>17:11:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>28</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>17:11:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>37</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>17:11:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>31</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>17:11:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>25</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>17:11:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>26</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>17:11:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>44</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>17:11:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>34</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>17:11:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>20</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>17:11:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>34</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>17:11:22</t>
+          <t>21:22:31</t>
         </is>
       </c>
     </row>
